--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core MedicationDosage Base Profile</t>
+    <t>JP Core MedicationDosage Base DataType</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -896,14 +896,14 @@
     <t>Dosage.maxDosePerPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio}
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
 </t>
   </si>
   <si>
-    <t>単位時間あたり薬剤の投与量</t>
-  </si>
-  <si>
-    <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
+    <t>単位時間内での薬剤の容量（体積）</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="309">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはユーザは直接適用するものではなく、JP_MedicationRequestとJP_MedicationRequestInjectionの共通の親となる抽象プロファイルである。MedicationRequestリソースに対して、内服・外用薬剤処方、注射・点滴などのデータを送受信するため、JP_MedicationRequestとJP_MedicationRequestInjectionの各プロファイルの基礎となる制約と拡張のうち共通部分を定めている。</t>
+    <t>このプロファイルは薬剤用のDosageベースとして基礎となる制約と拡張のうち共通部分を定めている。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -887,10 +887,41 @@
     <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>.rateQuantity</t>
   </si>
   <si>
     <t>RXE22, RXE23, RXE-24</t>
+  </si>
+  <si>
+    <t>rateRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange_UnitOfTime}
+</t>
+  </si>
+  <si>
+    <t>薬剤の単位指定された上限下限量</t>
+  </si>
+  <si>
+    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -907,10 +938,6 @@
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1256,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK47"/>
+  <dimension ref="A1:AK48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5913,16 +5940,14 @@
         <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>277</v>
@@ -5940,17 +5965,19 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>74</v>
       </c>
@@ -5971,19 +5998,19 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>74</v>
@@ -6032,7 +6059,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6050,12 +6077,12 @@
         <v>290</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>122</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6078,19 +6105,19 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6139,7 +6166,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6151,13 +6178,13 @@
         <v>288</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>298</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -6185,19 +6212,19 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6258,13 +6285,120 @@
         <v>288</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -904,10 +904,10 @@
 </t>
   </si>
   <si>
-    <t>薬剤の単位指定された上限下限量</t>
-  </si>
-  <si>
-    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
+    <t>時間範囲指定された上限下限量</t>
+  </si>
+  <si>
+    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -934,7 +934,7 @@
     <t>単位時間内での薬剤の容量（体積）</t>
   </si>
   <si>
-    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
+    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -931,7 +931,7 @@
 </t>
   </si>
   <si>
-    <t>単位時間内での薬剤の容量（体積）</t>
+    <t>単位時間内での薬剤の容量</t>
   </si>
   <si>
     <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
